--- a/ESPN sports website/IPL/Punjab Kings/Arshdeep Singh.xlsx
+++ b/ESPN sports website/IPL/Punjab Kings/Arshdeep Singh.xlsx
@@ -445,31 +445,31 @@
         <v>Arshdeep Singh</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="str">
+        <v>5</v>
+      </c>
+      <c r="E2" t="str">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <v>0</v>
-      </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>200.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 17, 2022</v>
+        <v>April 08, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Sunrisers won by 7 wickets (with 7 balls remaining)</v>
+        <v>Titans won by 6 wickets</v>
       </c>
     </row>
     <row r="3">
@@ -515,31 +515,31 @@
         <v>Arshdeep Singh</v>
       </c>
       <c r="C4" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="str">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>200.00</v>
+        <v>52.94</v>
       </c>
       <c r="H4" t="str">
-        <v>Gujarat Titans</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>April 08, 2022</v>
+        <v>April 20, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Titans won by 6 wickets</v>
+        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Arshdeep Singh</v>
       </c>
       <c r="C5" t="str">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E5" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>52.94</v>
+        <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>April 20, 2022</v>
+        <v>April 29, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
+        <v>Super Giants won by 20 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,10 +585,10 @@
         <v>Arshdeep Singh</v>
       </c>
       <c r="C6" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>66.66</v>
+        <v>0.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I6" t="str">
         <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>May 16, 2022</v>
+        <v>April 17, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Capitals won by 17 runs</v>
+        <v>Sunrisers won by 7 wickets (with 7 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,10 +620,10 @@
         <v>Arshdeep Singh</v>
       </c>
       <c r="C7" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>
@@ -632,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>0.00</v>
+        <v>66.66</v>
       </c>
       <c r="H7" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I7" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J7" t="str">
-        <v>April 29, 2022</v>
+        <v>May 16, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Giants won by 20 runs</v>
+        <v>Capitals won by 17 runs</v>
       </c>
     </row>
   </sheetData>
